--- a/src/assets/files/ASQSE-2-0131.xlsx
+++ b/src/assets/files/ASQSE-2-0131.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick_mac/Documents/work/gitstore/ASQ/asq_frontend/src/assets/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF9B493-543D-DA4D-8C83-8349F833B02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1984D9-2826-5C45-B28F-5A5B684C3C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1820" windowWidth="30080" windowHeight="17540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="460" windowWidth="33600" windowHeight="19680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2个月" sheetId="5" r:id="rId1"/>
@@ -23,12 +23,22 @@
     <sheet name="48个月" sheetId="6" r:id="rId8"/>
     <sheet name="60个月" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="208">
   <si>
     <t>序号</t>
   </si>
@@ -1248,6 +1258,10 @@
   </si>
   <si>
     <t>语音</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子有进食问题吗？ 例如，食物塞满嘴、呕吐、吃不是食物的东西，你也可以填写其他进食问题并解释：</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1673,18 +1687,18 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="49.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" style="4" customWidth="1"/>
@@ -1782,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1796,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1816,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1925,7 +1939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2102,6 +2116,9 @@
       <c r="G23" s="4">
         <v>2</v>
       </c>
+      <c r="H23">
+        <v>121</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
@@ -2121,6 +2138,9 @@
       </c>
       <c r="G24" s="4">
         <v>2</v>
+      </c>
+      <c r="H24">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2159,7 @@
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -2677,6 +2697,9 @@
       <c r="G30" s="4">
         <v>2</v>
       </c>
+      <c r="H30">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
@@ -2697,6 +2720,9 @@
       <c r="G31" s="4">
         <v>2</v>
       </c>
+      <c r="H31">
+        <v>121</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
@@ -2716,6 +2742,9 @@
       </c>
       <c r="G32" s="4">
         <v>2</v>
+      </c>
+      <c r="H32">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2730,25 +2759,25 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -2995,7 +3024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3044,7 +3073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3129,7 +3158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3208,7 +3237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3222,7 +3251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="30">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3248,7 +3277,7 @@
       </c>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3303,13 +3332,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3328,8 +3357,11 @@
       <c r="G34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3348,8 +3380,11 @@
       <c r="G35" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3367,6 +3402,9 @@
       </c>
       <c r="G36" s="4">
         <v>2</v>
+      </c>
+      <c r="H36">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3378,14 +3416,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -3399,7 +3437,7 @@
     <col min="7" max="7" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3421,11 +3459,11 @@
       <c r="G1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3435,11 +3473,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3452,11 +3490,11 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3466,11 +3504,11 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="H4">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3480,11 +3518,11 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3500,11 +3538,11 @@
       <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3514,11 +3552,11 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3534,11 +3572,11 @@
       <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3551,11 +3589,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1">
+    <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3574,11 +3612,11 @@
       <c r="G10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3588,11 +3626,11 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3614,11 +3652,11 @@
       <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3640,11 +3678,11 @@
       <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3663,11 +3701,11 @@
       <c r="G14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I14">
+      <c r="H14">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3677,11 +3715,11 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="H15">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3697,11 +3735,11 @@
       <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3711,11 +3749,11 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3734,11 +3772,11 @@
       <c r="G18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3748,11 +3786,11 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3768,11 +3806,11 @@
       <c r="G20" s="4">
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="H20">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3782,11 +3820,11 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="H21">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3802,11 +3840,11 @@
       <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="H22">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3816,11 +3854,11 @@
       <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="I23">
+      <c r="H23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3839,11 +3877,11 @@
       <c r="G24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I24">
+      <c r="H24">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3853,11 +3891,11 @@
       <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3876,11 +3914,11 @@
       <c r="G26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I26">
+      <c r="H26">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3890,11 +3928,11 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="H27">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3904,11 +3942,11 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3918,11 +3956,11 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="H29">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3941,11 +3979,11 @@
       <c r="G30" s="4">
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="H30">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3955,11 +3993,11 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="H31">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3975,17 +4013,17 @@
       <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="H32">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4004,11 +4042,11 @@
       <c r="G34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I34">
+      <c r="H34">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4021,11 +4059,11 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="H35">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4036,18 +4074,18 @@
       <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="H36">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4066,8 +4104,11 @@
       <c r="G38" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="H38">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4086,8 +4127,11 @@
       <c r="G39" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="H39">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4106,20 +4150,23 @@
       <c r="G40" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="H40">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:8">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:8">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:8">
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:8">
       <c r="E45" s="2"/>
     </row>
   </sheetData>
@@ -4141,7 +4188,7 @@
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -4827,6 +4874,9 @@
       <c r="G38" s="4">
         <v>2</v>
       </c>
+      <c r="H38">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
@@ -4847,6 +4897,9 @@
       <c r="G39" s="4">
         <v>2</v>
       </c>
+      <c r="H39">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
@@ -4866,6 +4919,9 @@
       </c>
       <c r="G40" s="4">
         <v>2</v>
+      </c>
+      <c r="H40">
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -4892,21 +4948,21 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
@@ -5552,9 +5608,6 @@
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
@@ -5634,6 +5687,9 @@
       <c r="G40" s="4">
         <v>2</v>
       </c>
+      <c r="H40">
+        <v>120</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="2">
@@ -5654,6 +5710,9 @@
       <c r="G41" s="4">
         <v>2</v>
       </c>
+      <c r="H41">
+        <v>122</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="2">
@@ -5673,6 +5732,9 @@
       </c>
       <c r="G42" s="4">
         <v>2</v>
+      </c>
+      <c r="H42">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5687,17 +5749,17 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
@@ -6472,6 +6534,9 @@
       <c r="G42" s="4">
         <v>2</v>
       </c>
+      <c r="H42">
+        <v>120</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
@@ -6492,6 +6557,9 @@
       <c r="G43" s="4">
         <v>2</v>
       </c>
+      <c r="H43">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
@@ -6511,6 +6579,9 @@
       </c>
       <c r="G44" s="4">
         <v>2</v>
+      </c>
+      <c r="H44">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6533,11 +6604,11 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -7338,6 +7409,9 @@
       <c r="G43" s="4">
         <v>2</v>
       </c>
+      <c r="H43">
+        <v>120</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="15">
       <c r="A44" s="2">
@@ -7358,6 +7432,9 @@
       <c r="G44" s="4">
         <v>2</v>
       </c>
+      <c r="H44">
+        <v>122</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45" s="2">
@@ -7377,6 +7454,9 @@
       </c>
       <c r="G45" s="4">
         <v>2</v>
+      </c>
+      <c r="H45">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7391,17 +7471,17 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F5" sqref="F5"/>
       <selection pane="topRight" activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="2" customWidth="1"/>
@@ -7628,8 +7708,8 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>95</v>
+      <c r="B13" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -7650,7 +7730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7684,7 +7764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7761,7 +7841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -7795,7 +7875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -7907,7 +7987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -8078,7 +8158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15">
+    <row r="36" spans="1:8" ht="30">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -8177,7 +8257,7 @@
       </c>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="15">
+    <row r="43" spans="1:8" ht="30">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -8195,6 +8275,9 @@
       </c>
       <c r="G43" s="4">
         <v>2</v>
+      </c>
+      <c r="H43">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15">
@@ -8216,8 +8299,11 @@
       <c r="G44" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="30">
+      <c r="H44">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -8235,6 +8321,9 @@
       </c>
       <c r="G45" s="4">
         <v>2</v>
+      </c>
+      <c r="H45">
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:8">
